--- a/Input/input.xlsx
+++ b/Input/input.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaimie/Desktop/Freelancer/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\task\createPDF\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB474006-88EB-A645-B2D2-C3BBF4799C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="980" windowWidth="30840" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="975" windowWidth="30840" windowHeight="18015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -404,12 +403,15 @@
   </si>
   <si>
     <t>Feral</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alexandra Brotzman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -439,13 +441,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -790,29 +805,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L24:L34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="52.875" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="8" max="8" width="3.875" customWidth="1"/>
+    <col min="9" max="9" width="25.875" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -867,7 +882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -887,7 +902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -907,7 +922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -927,7 +942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -947,7 +962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -967,7 +982,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -987,7 +1002,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1007,7 +1022,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1027,7 +1042,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1067,7 +1082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1087,11 +1102,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C14">
@@ -1122,230 +1137,230 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
         <v>44</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" t="s">
         <v>21</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
         <v>52</v>
       </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>97</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>27</v>
       </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
         <v>98</v>
       </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>67</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>68</v>
       </c>
-      <c r="J18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>77</v>
       </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
         <v>78</v>
       </c>
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>38</v>
       </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
         <v>41</v>
       </c>
-      <c r="J20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>63</v>
       </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
         <v>64</v>
       </c>
-      <c r="J21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
         <v>30</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" t="s">
         <v>20</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
         <v>18</v>
       </c>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
         <v>90</v>
@@ -1354,55 +1369,70 @@
         <v>91</v>
       </c>
       <c r="K25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>85</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>86</v>
       </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
         <v>87</v>
       </c>
-      <c r="J26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -1417,12 +1447,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1437,28 +1467,48 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>74</v>
       </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
         <v>72</v>
       </c>
-      <c r="J30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="I2:I30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1469,7 +1519,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{401E0ACC-E7AA-7749-93D1-AACF61D8217D}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{401E0ACC-E7AA-7749-93D1-AACF61D8217D}">
             <xm:f>NOT(ISERROR(SEARCH("-",G1)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -1483,7 +1533,24 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G1:G13 G15:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{4C8AEC5A-74B5-43EC-B858-5271A1EAA284}">
+            <xm:f>NOT(ISERROR(SEARCH("-",G14)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
